--- a/config_debug/fish_3d_caibei_config.xlsx
+++ b/config_debug/fish_3d_caibei_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="free_receive|免费领取" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -162,22 +161,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100,200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>award_num|奖励数量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100,300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_lock</t>
   </si>
   <si>
@@ -189,27 +176,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>200,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,600</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,500</t>
+    <t>10000,20000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,20000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,50000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,50000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,30000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,60000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,50000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -1014,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4">
         <v>10</v>
@@ -1069,7 +1068,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4">
         <v>70</v>
@@ -1086,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
@@ -1100,10 +1099,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6">
         <v>20</v>
@@ -1117,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6">
         <v>20</v>
@@ -1137,7 +1136,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4">
         <v>70</v>
@@ -1154,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
@@ -1168,10 +1167,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6">
         <v>20</v>
@@ -1185,10 +1184,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6">
         <v>20</v>
@@ -1205,7 +1204,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4">
         <v>70</v>
@@ -1222,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4">
         <v>10</v>
@@ -1236,10 +1235,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="6">
         <v>20</v>
@@ -1253,10 +1252,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6">
         <v>20</v>
@@ -1273,7 +1272,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4">
         <v>70</v>
@@ -1304,10 +1303,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6">
         <v>20</v>
@@ -1321,10 +1320,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6">
         <v>20</v>
@@ -1341,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_3d_caibei_config.xlsx
+++ b/config_debug/fish_3d_caibei_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>icon|彩贝的icon图片</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>fish_coin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>award_num|奖励数量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -168,39 +164,31 @@
     <t>prop_fish_lock</t>
   </si>
   <si>
+    <t>prop_fish_frozen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount_fish_coin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>1,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_frozen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,20000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,30000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,20000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,50000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,30000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,50000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,30000</t>
+    <t>|价值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,6000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值3W</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -208,7 +196,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>20000,50000</t>
+    <t>20000,40000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值50W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值200W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值500W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000,1000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,700000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,2600000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2600000,3000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000,6000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000,8000000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -297,6 +325,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -305,7 +342,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,6 +372,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -687,13 +733,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F6"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="4" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -713,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -1011,19 +1058,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1085,11 @@
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1048,101 +1097,113 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F2" s="12">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4">
+        <v>60</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1153,47 +1214,54 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1201,135 +1269,146 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="6">
-        <v>20</v>
-      </c>
+      <c r="D13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4">
+        <v>60</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_debug/fish_3d_caibei_config.xlsx
+++ b/config_debug/fish_3d_caibei_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -376,10 +376,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,16 +777,16 @@
         <v>26</v>
       </c>
       <c r="D2" s="4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -800,16 +800,16 @@
         <v>27</v>
       </c>
       <c r="D3" s="4">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -823,16 +823,16 @@
         <v>28</v>
       </c>
       <c r="D4" s="4">
-        <v>900</v>
+        <v>6000</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -846,16 +846,16 @@
         <v>29</v>
       </c>
       <c r="D5" s="4">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -869,16 +869,16 @@
         <v>30</v>
       </c>
       <c r="D6" s="4">
-        <v>1500</v>
+        <v>24000</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>5000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1105,7 +1105,7 @@
       <c r="E2" s="4">
         <v>80</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>5000</v>
       </c>
       <c r="G2" s="9"/>
@@ -1126,7 +1126,7 @@
       <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1144,7 +1144,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1162,7 +1162,7 @@
       <c r="E5" s="4">
         <v>30</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="9"/>
@@ -1183,7 +1183,7 @@
       <c r="E6" s="4">
         <v>60</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1201,7 +1201,7 @@
       <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1219,7 +1219,7 @@
       <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       <c r="E9" s="4">
         <v>60</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1257,7 +1257,7 @@
       <c r="E10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1295,7 +1295,7 @@
       <c r="E12" s="4">
         <v>40</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       <c r="E13" s="4">
         <v>60</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_3d_caibei_config.xlsx
+++ b/config_debug/fish_3d_caibei_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
@@ -161,13 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_lock</t>
-  </si>
-  <si>
-    <t>prop_fish_frozen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>discount_fish_coin</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -237,6 +230,13 @@
   </si>
   <si>
     <t>6000000,8000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -342,7 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1060,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1097,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4">
         <v>80</v>
@@ -1110,18 +1119,18 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>10</v>
@@ -1136,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
@@ -1157,13 +1166,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4">
         <v>30</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -1175,10 +1184,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4">
         <v>60</v>
@@ -1193,10 +1202,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4">
         <v>10</v>
@@ -1214,13 +1223,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4">
         <v>40</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1231,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4">
         <v>60</v>
@@ -1252,13 +1261,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4">
         <v>40</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1269,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4">
         <v>60</v>
@@ -1290,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1307,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4">
         <v>60</v>
@@ -1419,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_3d_caibei_config.xlsx
+++ b/config_debug/fish_3d_caibei_config.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Common|通用" sheetId="8" r:id="rId1"/>
-    <sheet name="config|彩贝配置" sheetId="5" r:id="rId2"/>
-    <sheet name="award_config|奖励配置" sheetId="7" r:id="rId3"/>
-    <sheet name="free_receive|免费领取" sheetId="9" r:id="rId4"/>
+    <sheet name="open_config|格子开启配置" sheetId="10" r:id="rId2"/>
+    <sheet name="config|彩贝配置" sheetId="5" r:id="rId3"/>
+    <sheet name="award_config|奖励配置" sheetId="7" r:id="rId4"/>
+    <sheet name="free_receive|免费领取" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>icon|彩贝的icon图片</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -85,10 +86,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>vip_limit_max|拥有最大数量的VIP等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>line|行号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -97,10 +94,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>default_count|默认彩贝格子数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>complete_money|快速完成需要的鲸币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -237,6 +230,18 @@
   </si>
   <si>
     <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|格子索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_limit|VIP等级限制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_limit|等级限制</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -382,14 +387,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -668,67 +673,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
         <v>5</v>
       </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
       <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -737,6 +726,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -769,10 +845,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -780,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4">
         <v>600</v>
@@ -803,10 +879,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>1800</v>
@@ -826,10 +902,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
         <v>6000</v>
@@ -849,10 +925,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
         <v>12000</v>
@@ -872,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4">
         <v>24000</v>
@@ -1065,12 +1141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1106,15 +1182,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4">
         <v>80</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>5000</v>
       </c>
       <c r="G2" s="9"/>
@@ -1126,16 +1202,16 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>51</v>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1145,15 +1221,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1166,13 +1242,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4">
         <v>30</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>37</v>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -1184,15 +1260,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4">
         <v>60</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1202,15 +1278,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1223,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
+      <c r="F8" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1240,15 +1316,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4">
         <v>60</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1261,13 +1337,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1278,15 +1354,15 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1299,13 +1375,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>43</v>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1316,15 +1392,15 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4">
         <v>60</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
@@ -1424,7 +1500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1436,13 +1512,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
